--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_TC_DangNhap_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_TC_DangNhap_ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F05123E-6413-4C3B-BE22-7D4F3BC9D1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1383EE06-3097-4F60-A0A3-563864851D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="161">
   <si>
     <t>Author</t>
   </si>
@@ -469,9 +469,6 @@
     <t xml:space="preserve">Hiển thị hình ảnh đại diện hình tròn của user ở trung tâm </t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>passed</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
   </si>
   <si>
     <t>TC-DN-LI-13</t>
-  </si>
-  <si>
-    <t>Người dùng nhấn vào hình ảnh đại diện hệ thống hiển thị thông tin của nhân viên : tên , Sinh nhật , Email , nhóm , phòng , Đổi mật khẩu.</t>
   </si>
   <si>
     <t>TR-DN-TC-11</t>
@@ -528,6 +522,21 @@
   </si>
   <si>
     <t>hệ thống hiển thị thông tin của nhân viên : tên , Sinh nhật , Email , nhóm , phòng , Đổi mật khẩu.</t>
+  </si>
+  <si>
+    <t>'Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo lỗi" tài khoản đã bị khóa "  khi người dùng đăng nhập bằng tài khoản đã bị khóa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo lỗi" tài khoản đã bị khóa "  khi người dùng đăng nhập bằng tài khoản đã bị khóa  </t>
+  </si>
+  <si>
+    <t>TC-DN-LI-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix issue </t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1320,6 +1329,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1404,28 +1416,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1438,15 +1459,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1773,8 +1785,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1789,31 +1801,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -1845,7 +1857,7 @@
     </row>
     <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="51">
         <v>43896</v>
@@ -1859,11 +1871,17 @@
     </row>
     <row r="9" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43956</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
@@ -1878,12 +1896,12 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1924,7 +1942,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1942,78 +1960,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="F2" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71">
         <v>43720</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -2072,7 +2090,7 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>33</v>
@@ -2236,13 +2254,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" s="59" t="s">
         <v>31</v>
@@ -2258,17 +2276,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="33"/>
+        <v>150</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="D19" s="15" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="16"/>
@@ -2406,10 +2426,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -2431,26 +2451,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
     </row>
     <row r="2" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="38"/>
@@ -2492,27 +2512,27 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90">
+      <c r="A5" s="91">
         <v>1</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="91" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="89" t="s">
@@ -2536,9 +2556,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="88"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="89"/>
       <c r="E6" s="89"/>
       <c r="F6" s="44">
@@ -2550,15 +2570,15 @@
       <c r="H6" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="90" t="s">
         <v>109</v>
       </c>
       <c r="J6" s="89"/>
     </row>
     <row r="7" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="88"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="89"/>
       <c r="E7" s="89"/>
       <c r="F7" s="44">
@@ -2568,17 +2588,17 @@
         <v>75</v>
       </c>
       <c r="H7" s="45"/>
-      <c r="I7" s="88"/>
+      <c r="I7" s="90"/>
       <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90">
+      <c r="A8" s="91">
         <v>2</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="91" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="89" t="s">
@@ -2598,13 +2618,13 @@
         <v>113</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="89"/>
       <c r="E9" s="89"/>
       <c r="F9" s="44">
@@ -2613,18 +2633,18 @@
       <c r="G9" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="88" t="s">
+      <c r="H9" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="88" t="s">
-        <v>147</v>
+      <c r="I9" s="90" t="s">
+        <v>146</v>
       </c>
       <c r="J9" s="89"/>
     </row>
     <row r="10" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="89"/>
       <c r="E10" s="89"/>
       <c r="F10" s="44">
@@ -2633,14 +2653,14 @@
       <c r="G10" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="89"/>
       <c r="E11" s="89"/>
       <c r="F11" s="44">
@@ -2649,14 +2669,14 @@
       <c r="G11" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="89"/>
       <c r="E12" s="89"/>
       <c r="F12" s="44">
@@ -2665,16 +2685,16 @@
       <c r="G12" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90">
+      <c r="A13" s="91">
         <v>3</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="89" t="s">
@@ -2698,9 +2718,9 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="89"/>
       <c r="E14" s="89"/>
       <c r="F14" s="44">
@@ -2712,15 +2732,15 @@
       <c r="H14" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="88" t="s">
-        <v>144</v>
+      <c r="I14" s="90" t="s">
+        <v>143</v>
       </c>
       <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="89"/>
       <c r="E15" s="89"/>
       <c r="F15" s="44">
@@ -2730,15 +2750,15 @@
         <v>75</v>
       </c>
       <c r="H15" s="50"/>
-      <c r="I15" s="88"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90">
+      <c r="A16" s="91">
         <v>4</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="89" t="s">
@@ -2758,13 +2778,13 @@
         <v>51</v>
       </c>
       <c r="J16" s="89" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="88"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="89"/>
       <c r="E17" s="89"/>
       <c r="F17" s="44">
@@ -2773,18 +2793,18 @@
       <c r="G17" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="88" t="s">
+      <c r="H17" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="88" t="s">
-        <v>145</v>
+      <c r="I17" s="90" t="s">
+        <v>144</v>
       </c>
       <c r="J17" s="89"/>
     </row>
     <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="88"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="89"/>
       <c r="E18" s="89"/>
       <c r="F18" s="44">
@@ -2793,14 +2813,14 @@
       <c r="G18" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="89"/>
     </row>
     <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="88"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
       <c r="F19" s="44">
@@ -2810,13 +2830,13 @@
         <v>75</v>
       </c>
       <c r="H19" s="45"/>
-      <c r="I19" s="88"/>
+      <c r="I19" s="90"/>
       <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="88"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="89"/>
       <c r="E20" s="89"/>
       <c r="F20" s="44">
@@ -2826,15 +2846,15 @@
         <v>55</v>
       </c>
       <c r="H20" s="45"/>
-      <c r="I20" s="88"/>
+      <c r="I20" s="90"/>
       <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90">
+      <c r="A21" s="91">
         <v>5</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="91" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="89" t="s">
@@ -2854,13 +2874,13 @@
         <v>51</v>
       </c>
       <c r="J21" s="89" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="88"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="89"/>
       <c r="E22" s="89"/>
       <c r="F22" s="44">
@@ -2870,15 +2890,15 @@
         <v>59</v>
       </c>
       <c r="H22" s="53"/>
-      <c r="I22" s="88" t="s">
-        <v>146</v>
+      <c r="I22" s="90" t="s">
+        <v>145</v>
       </c>
       <c r="J22" s="89"/>
     </row>
     <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="88"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="89"/>
       <c r="E23" s="89"/>
       <c r="F23" s="44">
@@ -2888,17 +2908,17 @@
         <v>75</v>
       </c>
       <c r="H23" s="45"/>
-      <c r="I23" s="88"/>
+      <c r="I23" s="90"/>
       <c r="J23" s="89"/>
     </row>
     <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90">
+      <c r="A24" s="91">
         <v>1</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="91" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="89" t="s">
@@ -2922,9 +2942,9 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="88"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="89"/>
       <c r="E25" s="89"/>
       <c r="F25" s="44">
@@ -2936,15 +2956,15 @@
       <c r="H25" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="88" t="s">
+      <c r="I25" s="90" t="s">
         <v>97</v>
       </c>
       <c r="J25" s="89"/>
     </row>
     <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="88"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="89"/>
       <c r="E26" s="89"/>
       <c r="F26" s="44">
@@ -2954,17 +2974,17 @@
         <v>75</v>
       </c>
       <c r="H26" s="50"/>
-      <c r="I26" s="88"/>
+      <c r="I26" s="90"/>
       <c r="J26" s="89"/>
     </row>
     <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90">
+      <c r="A27" s="91">
         <v>6</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="91" t="s">
         <v>128</v>
       </c>
       <c r="D27" s="89" t="s">
@@ -2979,7 +2999,7 @@
       <c r="G27" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="88"/>
+      <c r="H27" s="90"/>
       <c r="I27" s="45" t="s">
         <v>51</v>
       </c>
@@ -2988,9 +3008,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="88"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="89"/>
       <c r="E28" s="89"/>
       <c r="F28" s="44">
@@ -2999,20 +3019,20 @@
       <c r="G28" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="88"/>
+      <c r="H28" s="90"/>
       <c r="I28" s="45" t="s">
         <v>62</v>
       </c>
       <c r="J28" s="89"/>
     </row>
     <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="90">
+      <c r="A29" s="91">
         <v>4</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="91" t="s">
         <v>121</v>
       </c>
       <c r="D29" s="89" t="s">
@@ -3036,9 +3056,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="88"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="89"/>
       <c r="E30" s="89"/>
       <c r="F30" s="44">
@@ -3048,15 +3068,15 @@
         <v>52</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I30" s="52"/>
       <c r="J30" s="89"/>
     </row>
     <row r="31" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="88"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="89"/>
       <c r="E31" s="89"/>
       <c r="F31" s="44">
@@ -3072,9 +3092,9 @@
       <c r="J31" s="89"/>
     </row>
     <row r="32" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="88"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="89"/>
       <c r="E32" s="89"/>
       <c r="F32" s="44">
@@ -3090,9 +3110,9 @@
       <c r="J32" s="89"/>
     </row>
     <row r="33" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="95"/>
-      <c r="C33" s="88"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="89"/>
       <c r="E33" s="89"/>
       <c r="F33" s="44">
@@ -3108,17 +3128,17 @@
       <c r="J33" s="89"/>
     </row>
     <row r="34" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90">
+      <c r="A34" s="91">
         <v>4</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="89" t="s">
         <v>152</v>
-      </c>
-      <c r="C34" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="89" t="s">
-        <v>154</v>
       </c>
       <c r="E34" s="89" t="s">
         <v>131</v>
@@ -3134,13 +3154,13 @@
         <v>51</v>
       </c>
       <c r="J34" s="89" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="88"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="89"/>
       <c r="E35" s="89"/>
       <c r="F35" s="44">
@@ -3156,9 +3176,9 @@
       <c r="J35" s="89"/>
     </row>
     <row r="36" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="88"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="89"/>
       <c r="E36" s="89"/>
       <c r="F36" s="44">
@@ -3174,51 +3194,51 @@
       <c r="J36" s="89"/>
     </row>
     <row r="37" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="88"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="89"/>
       <c r="E37" s="89"/>
       <c r="F37" s="44">
         <v>4</v>
       </c>
       <c r="G37" s="59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H37" s="59"/>
       <c r="I37" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="102"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="99"/>
       <c r="J38" s="57"/>
     </row>
     <row r="39" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93">
+      <c r="A39" s="92">
         <v>8</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="96" t="s">
+      <c r="D39" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="96" t="s">
+      <c r="E39" s="100" t="s">
         <v>131</v>
       </c>
       <c r="F39" s="44">
@@ -3227,11 +3247,11 @@
       <c r="G39" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="H39" s="98"/>
+      <c r="H39" s="102"/>
       <c r="I39" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="96" t="s">
+      <c r="J39" s="100" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3239,28 +3259,28 @@
       <c r="A40" s="95"/>
       <c r="B40" s="95"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="44">
         <v>2</v>
       </c>
       <c r="G40" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="H40" s="99"/>
+      <c r="H40" s="103"/>
       <c r="I40" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="97"/>
+      <c r="J40" s="101"/>
     </row>
     <row r="41" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="90">
+      <c r="A41" s="91">
         <v>9</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="91" t="s">
         <v>104</v>
       </c>
       <c r="D41" s="89" t="s">
@@ -3275,7 +3295,7 @@
       <c r="G41" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="90"/>
       <c r="I41" s="59" t="s">
         <v>51</v>
       </c>
@@ -3284,9 +3304,9 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="57" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="88"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="89"/>
       <c r="E42" s="89"/>
       <c r="F42" s="44">
@@ -3295,23 +3315,23 @@
       <c r="G42" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="H42" s="88"/>
+      <c r="H42" s="90"/>
       <c r="I42" s="46" t="s">
         <v>66</v>
       </c>
       <c r="J42" s="89"/>
     </row>
     <row r="43" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="90">
+      <c r="A43" s="91">
         <v>10</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="88" t="s">
+      <c r="D43" s="90" t="s">
         <v>46</v>
       </c>
       <c r="E43" s="89" t="s">
@@ -3323,7 +3343,7 @@
       <c r="G43" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="H43" s="88"/>
+      <c r="H43" s="90"/>
       <c r="I43" s="45" t="s">
         <v>51</v>
       </c>
@@ -3332,10 +3352,10 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="88"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="90"/>
       <c r="E44" s="89"/>
       <c r="F44" s="44">
         <v>2</v>
@@ -3343,17 +3363,17 @@
       <c r="G44" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="H44" s="88"/>
+      <c r="H44" s="90"/>
       <c r="I44" s="46" t="s">
         <v>45</v>
       </c>
       <c r="J44" s="89"/>
     </row>
     <row r="45" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="88"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="89"/>
       <c r="F45" s="44">
         <v>3</v>
@@ -3361,20 +3381,20 @@
       <c r="G45" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="88"/>
+      <c r="H45" s="90"/>
       <c r="I45" s="46" t="s">
         <v>68</v>
       </c>
       <c r="J45" s="89"/>
     </row>
     <row r="46" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="90">
+      <c r="A46" s="91">
         <v>1</v>
       </c>
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="90" t="s">
+      <c r="C46" s="91" t="s">
         <v>133</v>
       </c>
       <c r="D46" s="89" t="s">
@@ -3398,9 +3418,9 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="88"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="89"/>
       <c r="E47" s="89"/>
       <c r="F47" s="44">
@@ -3412,15 +3432,15 @@
       <c r="H47" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="I47" s="88" t="s">
+      <c r="I47" s="90" t="s">
         <v>109</v>
       </c>
       <c r="J47" s="89"/>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="88"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="89"/>
       <c r="E48" s="89"/>
       <c r="F48" s="44">
@@ -3430,21 +3450,21 @@
         <v>75</v>
       </c>
       <c r="H48" s="55"/>
-      <c r="I48" s="88"/>
+      <c r="I48" s="90"/>
       <c r="J48" s="89"/>
     </row>
     <row r="49" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="90">
+      <c r="A49" s="91">
         <v>1</v>
       </c>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="90" t="s">
-        <v>150</v>
-      </c>
       <c r="D49" s="89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49" s="89" t="s">
         <v>107</v>
@@ -3464,9 +3484,9 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="88"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="89"/>
       <c r="E50" s="89"/>
       <c r="F50" s="44">
@@ -3478,15 +3498,15 @@
       <c r="H50" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="I50" s="88" t="s">
+      <c r="I50" s="90" t="s">
         <v>109</v>
       </c>
       <c r="J50" s="89"/>
     </row>
     <row r="51" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="88"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="89"/>
       <c r="E51" s="89"/>
       <c r="F51" s="44">
@@ -3496,31 +3516,146 @@
         <v>75</v>
       </c>
       <c r="H51" s="59"/>
-      <c r="I51" s="88"/>
+      <c r="I51" s="90"/>
       <c r="J51" s="89"/>
     </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="1" t="s">
+    <row r="52" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="91">
+        <v>1</v>
+      </c>
+      <c r="B52" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="44">
+        <v>1</v>
+      </c>
+      <c r="G52" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="91"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="44">
+        <v>2</v>
+      </c>
+      <c r="G53" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="J53" s="89"/>
+    </row>
+    <row r="54" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="91"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="44">
+        <v>3</v>
+      </c>
+      <c r="G54" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="60"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="89"/>
+    </row>
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="1" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="I47:I48"/>
+  <mergeCells count="107">
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="B8:B23"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
     <mergeCell ref="J1:R1"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="A46:A48"/>
@@ -3537,41 +3672,25 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="H27:H28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="B8:B23"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J43:J45"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="A38:I38"/>
@@ -3580,32 +3699,6 @@
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="J29:J33"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3689,6 +3782,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D6B4B01122C4C5469986154FFB8D8EF2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec10f64280011073fa6f623697d19ea0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1044e740-9d69-44f8-aa12-902420f7be47" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0ac0c3d935aad8a20770947cf8d8aaa" ns2:_="">
     <xsd:import namespace="1044e740-9d69-44f8-aa12-902420f7be47"/>
@@ -3820,15 +3922,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF9BCF9-BFA6-49C3-93BA-45A599D5F8E2}">
   <ds:schemaRefs>
@@ -3846,6 +3939,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36A47FB5-60F9-4867-A4F2-9E6144B6C2E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92DBB237-9D81-4F1E-AE32-CDD55FC150A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3861,12 +3962,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36A47FB5-60F9-4867-A4F2-9E6144B6C2E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>